--- a/target/classes/com/qa/testdata/loginTestData.xlsx
+++ b/target/classes/com/qa/testdata/loginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lakshmy-SeleniumWorkSpace\OpenCartTest\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDB8050-D9F0-4018-85C6-09DE7F90C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853C821-209E-45B8-88DE-55B38825E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{9F16C835-A618-441D-913D-7482C88E8F34}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -499,37 +499,42 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="2">
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{2A1ADEF0-F46C-4D2B-B45D-66BC19C38AC9}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{DD299234-2D09-4340-86F1-37F45184AEA0}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{F684719E-836F-47F3-B644-5971DDEC7602}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{31673052-E13B-45F9-AF78-5B70DF9BF659}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{162FF8AA-A264-4896-89A1-24D81A02FFF8}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{81C5C06B-B372-4D0B-8ADF-22B741ED2AD8}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{693BC9DC-E621-47CC-973E-79F15C44FD49}"/>
+    <hyperlink ref="A4" r:id="rId5" display="sample@gmail.com" xr:uid="{154E071C-8135-4A60-9A7B-11293FF9CA96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -540,7 +545,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/target/classes/com/qa/testdata/loginTestData.xlsx
+++ b/target/classes/com/qa/testdata/loginTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lakshmy-SeleniumWorkSpace\OpenCartTest\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853C821-209E-45B8-88DE-55B38825E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754489B3-B710-4B6A-B63F-B0B93818162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{9F16C835-A618-441D-913D-7482C88E8F34}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7290" xr2:uid="{9F16C835-A618-441D-913D-7482C88E8F34}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
